--- a/medicine/Handicap/Give_Me_Liberty_(film,_2019)/Give_Me_Liberty_(film,_2019).xlsx
+++ b/medicine/Handicap/Give_Me_Liberty_(film,_2019)/Give_Me_Liberty_(film,_2019).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Give Me Liberty est un film américain réalisé par Kirill Mikhanovsky et sorti en 2019.
 Il a d'abord été montré au festival de Sundance et au festival de Cannes.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À Milwaukee, Vic est un jeune homme d'origine russe. Il travaille comme chauffeur de mini-bus pour personnes handicapées. Lors d'une tournée, il doit aussi gérer son grand-père, qui n'a plus toute sa tête et qui doit se rendre à l'enterrement de Lilya avec d'autres personnes âgées membres de la communauté russophone. Or, le bus qui devait venir chercher le groupe n'est toujours pas là. Vic finit par accepter de les emmener avec son mini-bus, alors que cela va immanquablement créer des complications et des retards, d'autant que des manifestations perturbent aussi la ville ce jour-là...
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : Give Me Liberty
 Réalisation : Kirill Mikhanovsky
@@ -589,7 +605,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Lauren 'Lolo' Spencer : Tracy Holmes
 Chris Galust : Vic
@@ -631,10 +649,15 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Accueil critique
-En France, Allociné propose une note moyenne de 3,6/5 à partir de 21 critiques de presse[3].
-Pour Les Inrockuptibles, « Le film file à toute berzingue, ménageant de rares pauses sentimentales et familiales fort émouvantes et douces. Le film regorge, déborde d'amour et d'angoisse. »[4] Et pour Télérama « Cette épopée joyeuse et tendre renouvelle la comédie sociale. »[5].
-Box-office</t>
+          <t>Accueil critique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, Allociné propose une note moyenne de 3,6/5 à partir de 21 critiques de presse.
+Pour Les Inrockuptibles, « Le film file à toute berzingue, ménageant de rares pauses sentimentales et familiales fort émouvantes et douces. Le film regorge, déborde d'amour et d'angoisse. » Et pour Télérama « Cette épopée joyeuse et tendre renouvelle la comédie sociale. ».
+</t>
         </is>
       </c>
     </row>
